--- a/static/data/distribution.xlsx
+++ b/static/data/distribution.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\github\genderEquality\static\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Codes</t>
   </si>
@@ -47,13 +52,85 @@
   </si>
   <si>
     <t>M2R 3G4</t>
+  </si>
+  <si>
+    <t>M3J 3P8</t>
+  </si>
+  <si>
+    <t>M3N 2H6</t>
+  </si>
+  <si>
+    <t>M3N 2Y5</t>
+  </si>
+  <si>
+    <t>M3J 2H4</t>
+  </si>
+  <si>
+    <t>M3J 1R8</t>
+  </si>
+  <si>
+    <t>L4K 4N6</t>
+  </si>
+  <si>
+    <t>M2R 3G5</t>
+  </si>
+  <si>
+    <t>M3J 3P9</t>
+  </si>
+  <si>
+    <t>M3N 2H7</t>
+  </si>
+  <si>
+    <t>M3N 2Y6</t>
+  </si>
+  <si>
+    <t>M3J 2H5</t>
+  </si>
+  <si>
+    <t>M3J 1R9</t>
+  </si>
+  <si>
+    <t>L4K 4N7</t>
+  </si>
+  <si>
+    <t>M2R 3G6</t>
+  </si>
+  <si>
+    <t>M3J 3P10</t>
+  </si>
+  <si>
+    <t>M3N 2H8</t>
+  </si>
+  <si>
+    <t>M3N 2Y7</t>
+  </si>
+  <si>
+    <t>M3J 2H6</t>
+  </si>
+  <si>
+    <t>M3J 1R10</t>
+  </si>
+  <si>
+    <t>L4K 4N8</t>
+  </si>
+  <si>
+    <t>M2R 3G7</t>
+  </si>
+  <si>
+    <t>M3J 3P11</t>
+  </si>
+  <si>
+    <t>M3N 2H9</t>
+  </si>
+  <si>
+    <t>M3N 2Y8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +193,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +279,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,14 +490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -438,10 +527,10 @@
         <v>43.7671803</v>
       </c>
       <c r="E2">
-        <v>-79.4989923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-79.498992299999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -452,13 +541,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>43.7739913</v>
+        <v>43.773991299999999</v>
       </c>
       <c r="E3">
         <v>-79.52503999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -469,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>43.7585793</v>
+        <v>43.758579300000001</v>
       </c>
       <c r="E4">
-        <v>-79.5152016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-79.515201599999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,13 +575,13 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>43.7679803</v>
+        <v>43.767980299999998</v>
       </c>
       <c r="E5">
-        <v>-79.48726189999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>-79.487261899999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -503,13 +592,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>43.7586676</v>
+        <v>43.758667600000003</v>
       </c>
       <c r="E6">
-        <v>-79.4937644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-79.493764400000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -520,13 +609,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>43.7803227</v>
+        <v>43.780322699999999</v>
       </c>
       <c r="E7">
-        <v>-79.50870069999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-79.508700699999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -537,10 +626,690 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>43.7867778</v>
+        <v>43.786777800000003</v>
       </c>
       <c r="E8">
-        <v>-79.44595169999999</v>
+        <v>-79.445951699999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>43.763351700000001</v>
+      </c>
+      <c r="E9">
+        <v>-79.499277399999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>43.774324</v>
+      </c>
+      <c r="E10">
+        <v>-79.501244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>43.776575000000001</v>
+      </c>
+      <c r="E11">
+        <v>-79.469861199999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>43.7506743</v>
+      </c>
+      <c r="E12">
+        <v>-79.487137799999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>43.746227400000002</v>
+      </c>
+      <c r="E13">
+        <v>-79.487200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>43.754183500000003</v>
+      </c>
+      <c r="E14">
+        <v>-79.487701299999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>43.764577000000003</v>
+      </c>
+      <c r="E15">
+        <v>-79.467947100000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>43.773063800000003</v>
+      </c>
+      <c r="E16">
+        <v>-79.477849300000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>43.776698799999998</v>
+      </c>
+      <c r="E17">
+        <v>-79.485819199999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>43.754122700000003</v>
+      </c>
+      <c r="E18">
+        <v>-79.468630899999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>43.784917299999996</v>
+      </c>
+      <c r="E19">
+        <v>-79.471069999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>43.7506743</v>
+      </c>
+      <c r="E20">
+        <v>-79.487137799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>43.780494699999998</v>
+      </c>
+      <c r="E21">
+        <v>-79.475479300000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>43.759885300000001</v>
+      </c>
+      <c r="E22">
+        <v>-79.46758539999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>43.755787099999999</v>
+      </c>
+      <c r="E23">
+        <v>-79.516657299999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>43.756190199999999</v>
+      </c>
+      <c r="E24">
+        <v>-79.518979000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>43.756771999999998</v>
+      </c>
+      <c r="E25">
+        <v>-79.515083500000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>43.747726999999998</v>
+      </c>
+      <c r="E26">
+        <v>-79.523423199999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>43.785625099999997</v>
+      </c>
+      <c r="E27">
+        <v>-79.480434699999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>43.738747500000002</v>
+      </c>
+      <c r="E28">
+        <v>-79.511598499999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>43.756154199999997</v>
+      </c>
+      <c r="E29">
+        <v>-79.518871300000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>43.747772500000004</v>
+      </c>
+      <c r="E30">
+        <v>-79.522004199999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>43.753100400000008</v>
+      </c>
+      <c r="E31">
+        <v>-79.542034999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>43.759052799999999</v>
+      </c>
+      <c r="E32">
+        <v>-79.518786199999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>43.725662999999997</v>
+      </c>
+      <c r="E33">
+        <v>-79.482840999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>43.750597999999997</v>
+      </c>
+      <c r="E34">
+        <v>-79.542642999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>43.728219199999998</v>
+      </c>
+      <c r="E35">
+        <v>-79.481295199999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>43.756166999999998</v>
+      </c>
+      <c r="E36">
+        <v>-79.439996999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>41</v>
+      </c>
+      <c r="D37">
+        <v>43.752345800000001</v>
+      </c>
+      <c r="E37">
+        <v>-79.516364600000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>43.749645800000003</v>
+      </c>
+      <c r="E38">
+        <v>-79.516801000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>43.758986200000002</v>
+      </c>
+      <c r="E39">
+        <v>-79.518803300000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>43.749293600000001</v>
+      </c>
+      <c r="E40">
+        <v>-79.553365799999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>43.738770899999999</v>
+      </c>
+      <c r="E41">
+        <v>-79.540008200000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>43.721769700000003</v>
+      </c>
+      <c r="E42">
+        <v>-79.510675399999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>43.751396100000001</v>
+      </c>
+      <c r="E43">
+        <v>-79.548840999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>48</v>
+      </c>
+      <c r="D44">
+        <v>43.719427499999988</v>
+      </c>
+      <c r="E44">
+        <v>-79.511543399999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>49</v>
+      </c>
+      <c r="D45">
+        <v>43.748563399999988</v>
+      </c>
+      <c r="E45">
+        <v>-79.561691299999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>43.762911099999997</v>
+      </c>
+      <c r="E46">
+        <v>-79.530910800000015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>43.769289899999997</v>
+      </c>
+      <c r="E47">
+        <v>-79.521969900000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>52</v>
+      </c>
+      <c r="D48">
+        <v>43.774371799999997</v>
+      </c>
+      <c r="E48">
+        <v>-79.413118799999992</v>
       </c>
     </row>
   </sheetData>
